--- a/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_inactive.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4595,1266 +4595,6 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CHEMBL2036871</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>321.34</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4</v>
-      </c>
-      <c r="M72" t="n">
-        <v>74.70999999999999</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>92000</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>CHEMBL2038024</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant FAK using poly(Glu,Tyr)4 as substrate assessed as inhibition of [33P]Phosphate incorporation into substrate after 80 mins by scintillation counting</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>CHEMBL3261189</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>451.44</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3</v>
-      </c>
-      <c r="M73" t="n">
-        <v>114.95</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>30070</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>CHEMBL3268423</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly after 20 mins by turbidimetric method</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>CHEMBL2425111</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>226.04</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" t="n">
-        <v>67.34999999999999</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>95000</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>CHEMBL2425143</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)n2nc(C)c(C#N)c2[nH]1</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)n2nc(C)c(C#N)c2[nH]1</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>188.19</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2</v>
-      </c>
-      <c r="M75" t="n">
-        <v>73.95</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
-        <v>887000</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>CHEMBL2425141</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1sccc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1sccc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>184.22</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="n">
-        <v>72.19</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>233000</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>CHEMBL941</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>493.62</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" t="n">
-        <v>86.28</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q77" t="n">
-        <v>-62</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>CHEMBL4153877</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM by [33P]-ATP radiometric assay</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>CHEMBL1910715</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>327.34</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5</v>
-      </c>
-      <c r="M78" t="n">
-        <v>81.77</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>11</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>CHEMBL1913273</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant FAK at 10 uM after 4 hrs by Kinase-Glo luminescent assay</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>CHEMBL166031</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>352.39</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3</v>
-      </c>
-      <c r="M79" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>CHEMBL3630493</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>12</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>CHEMBL1019637</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CHEMBL4207014</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>3</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>CHEMBL4190967</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FAK (411 to 686 residues) at 1 uM using EEEEYEEEEEEYYIIEEEEEEYEEEEEEYYEEEEEEKKKK as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CHEMBL3758768</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>363.44</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>4</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>67.27</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>15</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>CHEMBL3761601</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CHEMBL607196</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>380.45</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>CHEMBL1069301</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CHEMBL1241462</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>228.3</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2</v>
-      </c>
-      <c r="M84" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>15</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>CHEMBL1246553</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 5 uM</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>CHEMBL519311</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>419.57</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>7</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>3</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>CHEMBL953401</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
-      <c r="M86" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>CHEMBL2014152</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
